--- a/data/trans_dic/P07B_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.02234655653811149</v>
+        <v>0.0223465565381115</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.04079454213286785</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01076929742416263</v>
+        <v>0.01010873719031846</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02617944876641834</v>
+        <v>0.0273427499202271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02200624067818761</v>
+        <v>0.02162854846011195</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04264197385324119</v>
+        <v>0.04207682001039106</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05936154114878084</v>
+        <v>0.05897815615358979</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04414914191789169</v>
+        <v>0.04391152303578878</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.04980993572732289</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0620277882786994</v>
+        <v>0.06202778827869941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.05600873900190981</v>
+        <v>0.0560087390019098</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03029345482334758</v>
+        <v>0.02960697502629435</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0470913780371147</v>
+        <v>0.04710005541943725</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04333910232014718</v>
+        <v>0.04360287575478389</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07661890932483147</v>
+        <v>0.07880697657025323</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08219509365554584</v>
+        <v>0.08270909619760872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07131168196388595</v>
+        <v>0.07138920644242437</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.06309692125796294</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.09634982061072565</v>
+        <v>0.09634982061072567</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.08072208120184046</v>
+        <v>0.08072208120184043</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04296835658249765</v>
+        <v>0.04196361293360867</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07306071965523682</v>
+        <v>0.07393483805408482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06457772983806186</v>
+        <v>0.0646525515655918</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09009831159102415</v>
+        <v>0.0878317230996412</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1212652423484221</v>
+        <v>0.1262031320477998</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09878435658715669</v>
+        <v>0.09886193605773935</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.1172480544942466</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1091236049254545</v>
+        <v>0.1091236049254544</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06525040348020389</v>
+        <v>0.06810056422500432</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09331931822309109</v>
+        <v>0.09393554161760032</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08676541920462105</v>
+        <v>0.08867449993823542</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1433652140694618</v>
+        <v>0.1407558621253946</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1478985923716714</v>
+        <v>0.1471970489074604</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1303331138267828</v>
+        <v>0.1346418367784275</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.02419714136822399</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.06423122791326995</v>
+        <v>0.06423122791326996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.04525744220459477</v>
+        <v>0.04525744220459478</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01236715528843284</v>
+        <v>0.01108263042134799</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04585521054871185</v>
+        <v>0.04373479902619791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03360155676764146</v>
+        <v>0.03332930609085469</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04499541350925264</v>
+        <v>0.04603821272383481</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08645647090437747</v>
+        <v>0.08626244942576601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06172912181649818</v>
+        <v>0.06059294709668168</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.09236412941662198</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.09491628218925198</v>
+        <v>0.09491628218925194</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.09362359593542972</v>
+        <v>0.09362359593542974</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06687442279130366</v>
+        <v>0.06729525026076108</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07285525792627079</v>
+        <v>0.07185309291776519</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07737141264185958</v>
+        <v>0.07607290192862927</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1245311067671796</v>
+        <v>0.1279521653303416</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1242395904861829</v>
+        <v>0.1253707455593896</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1142932207829256</v>
+        <v>0.1129314173409693</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.1448861009178694</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1137693670874516</v>
+        <v>0.1137693670874517</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05978106292702566</v>
+        <v>0.05910255026686798</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1227045522195818</v>
+        <v>0.124363734520312</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09786209120287043</v>
+        <v>0.09873476681561254</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1074929444339994</v>
+        <v>0.1065482755182743</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.171171322442412</v>
+        <v>0.1698790481244958</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1308277553117723</v>
+        <v>0.1300880059327937</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03775211131925111</v>
+        <v>0.03839226947336077</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07857822526052409</v>
+        <v>0.07777543134174537</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06216767135047744</v>
+        <v>0.06257923840982428</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06895141842925394</v>
+        <v>0.07106895638065491</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1122542534224534</v>
+        <v>0.1122839389912248</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08573412496852639</v>
+        <v>0.08642105388209954</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.06228152526108632</v>
+        <v>0.06228152526108634</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.09656436482978181</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.07990295609708961</v>
+        <v>0.07990295609708963</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05448332150784829</v>
+        <v>0.05405775258462145</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08754640684408047</v>
+        <v>0.08842296391510542</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07399861662615206</v>
+        <v>0.0740401140173286</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07228175861979326</v>
+        <v>0.07194301683148618</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1043834565918146</v>
+        <v>0.1045755493710412</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0859326066867061</v>
+        <v>0.08552808635343949</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3434</v>
+        <v>3223</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8274</v>
+        <v>8642</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13972</v>
+        <v>13732</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13596</v>
+        <v>13416</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18762</v>
+        <v>18641</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28031</v>
+        <v>27880</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16075</v>
+        <v>15711</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25735</v>
+        <v>25740</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>46682</v>
+        <v>46966</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>40658</v>
+        <v>41819</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44919</v>
+        <v>45200</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>76813</v>
+        <v>76896</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13578</v>
+        <v>13260</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26037</v>
+        <v>26349</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>43420</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28470</v>
+        <v>27754</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>43217</v>
+        <v>44976</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66420</v>
+        <v>66472</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24348</v>
+        <v>25411</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>39377</v>
+        <v>39637</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>68988</v>
+        <v>70506</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>53496</v>
+        <v>52522</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>62407</v>
+        <v>62111</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>103629</v>
+        <v>107055</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2543</v>
+        <v>2279</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10468</v>
+        <v>9984</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14581</v>
+        <v>14463</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9254</v>
+        <v>9468</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19736</v>
+        <v>19692</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26787</v>
+        <v>26294</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>18103</v>
+        <v>18217</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>19216</v>
+        <v>18951</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>41352</v>
+        <v>40658</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>33711</v>
+        <v>34638</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>32768</v>
+        <v>33067</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>61085</v>
+        <v>60357</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>43024</v>
+        <v>42535</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>94735</v>
+        <v>96016</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>145985</v>
+        <v>147287</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>77361</v>
+        <v>76681</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>132154</v>
+        <v>131156</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>195162</v>
+        <v>194058</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>30129</v>
+        <v>30640</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>65325</v>
+        <v>64657</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>101296</v>
+        <v>101967</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>55028</v>
+        <v>56718</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>93320</v>
+        <v>93345</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>139695</v>
+        <v>140815</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>192477</v>
+        <v>190973</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>327101</v>
+        <v>330376</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>537902</v>
+        <v>538204</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>255354</v>
+        <v>254158</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>390010</v>
+        <v>390728</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>624651</v>
+        <v>621711</v>
       </c>
     </row>
     <row r="40">
